--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c207_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c207_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +547,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +640,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -969,10 +981,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1016,28 +1028,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1062,28 +1074,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1490,10 +1502,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1537,28 +1549,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1583,28 +1595,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1982,10 +1994,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J64" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2029,28 +2041,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2075,28 +2087,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2387,10 +2399,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="J78" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2434,28 +2446,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2480,28 +2492,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2734,10 +2746,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
+      <c r="J90" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K90" s="2" t="s">
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2781,28 +2793,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2827,28 +2839,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3081,10 +3093,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
+      <c r="J102" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K102" s="2" t="s">
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3128,28 +3140,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3174,28 +3186,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3457,10 +3469,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
+      <c r="J115" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K115" s="2" t="s">
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3504,28 +3516,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3550,28 +3562,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3804,10 +3816,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
+      <c r="J127" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K127" s="2" t="s">
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3851,28 +3863,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3897,28 +3909,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4122,10 +4134,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
+      <c r="J138" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K138" s="2" t="s">
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4169,28 +4181,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4215,28 +4227,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4498,10 +4510,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
+      <c r="J151" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="2" t="s">
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4545,28 +4557,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4591,28 +4603,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4787,10 +4799,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
+      <c r="J161" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K161" s="2" t="s">
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
